--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,24 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>PERLA</t>
   </si>
 </sst>
 </file>
@@ -615,16 +597,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>9.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -738,7 +723,7 @@
         <v>87.5</v>
       </c>
       <c r="H2">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -800,7 +785,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -833,52 +818,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920366</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920377</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,87 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>AMARANTA DENISSE</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>DARIANA MONSERRAT</t>
   </si>
 </sst>
 </file>
@@ -503,16 +584,16 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="H3">
         <v>9.5</v>
@@ -529,19 +610,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>58.97</v>
+        <v>61.54</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -597,16 +678,16 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
         <v>9.4</v>
@@ -623,16 +704,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>33.33</v>
+      </c>
+      <c r="H3">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -646,16 +730,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>48.72</v>
+      </c>
+      <c r="H4">
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -737,16 +824,16 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="H3">
         <v>9.5</v>
@@ -763,19 +850,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>58.97</v>
+        <v>61.54</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +872,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -818,6 +905,259 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920389</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920366</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920382</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920362</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920378</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
@@ -76,76 +76,76 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
     <t>CUATRA</t>
   </si>
   <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
     <t>CALIHUA</t>
   </si>
   <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
     <t>ROMANOS</t>
   </si>
   <si>
     <t>ZOPIYACTLE</t>
   </si>
   <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
   </si>
   <si>
     <t>AMARANTA DENISSE</t>
   </si>
   <si>
     <t>MARIA</t>
-  </si>
-  <si>
-    <t>TAILY</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
   </si>
   <si>
     <t>JOEL</t>
@@ -907,13 +907,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920116</v>
+        <v>20330051920389</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -930,13 +930,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920121</v>
+        <v>20330051920144</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -953,22 +953,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920389</v>
+        <v>19330051920366</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920144</v>
+        <v>19330051920375</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -988,10 +988,10 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920366</v>
+        <v>19330051920377</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1011,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920375</v>
+        <v>19330051920382</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920377</v>
+        <v>20330051920116</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1057,18 +1057,18 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920382</v>
+        <v>20330051920121</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1080,13 +1080,13 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1140,10 +1140,10 @@
         <v>19330051920378</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>

--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 2020.xlsx
@@ -82,73 +82,73 @@
     <t>DE LA ROSA</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
     <t>CRISTOBAL</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
     <t>CASTRO</t>
   </si>
   <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
     <t>BRUNO</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>ROMANOS</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
     <t>TAILY</t>
   </si>
   <si>
     <t>ALONDRA</t>
   </si>
   <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>AMARANTA DENISSE</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
     <t>DANIELA</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
-    <t>AMARANTA DENISSE</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
   </si>
   <si>
     <t>OFELIA</t>
@@ -913,7 +913,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920366</v>
+        <v>19330051920375</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -965,7 +965,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920375</v>
+        <v>19330051920377</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920377</v>
+        <v>19330051920382</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920382</v>
+        <v>20330051920116</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -1034,18 +1034,18 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920116</v>
+        <v>20330051920121</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1068,22 +1068,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920121</v>
+        <v>19330051920362</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1091,19 +1091,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920362</v>
+        <v>19330051920366</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1140,10 +1140,10 @@
         <v>19330051920378</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
